--- a/biology/Médecine/Hermann_Conring_(médecin)/Hermann_Conring_(médecin).xlsx
+++ b/biology/Médecine/Hermann_Conring_(médecin)/Hermann_Conring_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hermann_Conring_(m%C3%A9decin)</t>
+          <t>Hermann_Conring_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Conring (né le 9 novembre 1606 à Norden et mort le 12 décembre 1681 à Helmstedt), dit Coringius, est un médecin et intellectuel allemand. Il a écrit sur le droit, la politique, l'histoire, la physique, la médecine et la théologie
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hermann_Conring_(m%C3%A9decin)</t>
+          <t>Hermann_Conring_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il professa la philosophie naturelle, puis la médecine à Helmstedt, et jouit d'une grande considération auprès du duc de Brunswick et de plusieurs princes, qui le consultèrent souvent et lui donnèrent le titre de conseiller, avec des pensions; il fut en correspondance avec Gottfried Wilhelm Leibniz.
 Ses principaux ouvrages sont : 
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hermann_Conring_(m%C3%A9decin)</t>
+          <t>Hermann_Conring_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Cet article comprend des extraits du Dictionnaire Bouillet. Il est possible de supprimer cette indication, si le texte reflète le savoir actuel sur ce thème, si les sources sont citées, s'il satisfait aux exigences linguistiques actuelles et s'il ne contient pas de propos qui vont à l'encontre des règles de neutralité de Wikipédia.</t>
         </is>
